--- a/data/case1/9/Q1_1.xlsx
+++ b/data/case1/9/Q1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.07896670570175246</v>
+        <v>0.09875120888855804</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.021054241440506161</v>
+        <v>-0.0059999999658515435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999656306073</v>
+        <v>-0.0039999999734945391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999935414337</v>
+        <v>-0.0079999999503392871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999709611203</v>
+        <v>-0.0029999999777441388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999768423038</v>
+        <v>-0.001999999982547962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999919401148</v>
+        <v>-0.0099999999380715465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.034807464344277061</v>
+        <v>-0.0099999999384694505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999979820366</v>
+        <v>-0.0019999999850552896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999797395418</v>
+        <v>-0.0019999999871416207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999724719117</v>
+        <v>-0.0029999999818990375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999689215855</v>
+        <v>-0.0034999999798794867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999699820705</v>
+        <v>0.041668227824816384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999378372877</v>
+        <v>-0.0079999999583195702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998992839068</v>
+        <v>-0.0009999999970764506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999984165779</v>
+        <v>-0.0019999999910371713</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999873538954</v>
+        <v>-0.0019999999904900534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.021931811931213296</v>
+        <v>-0.0039999999790909513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999700919275</v>
+        <v>-0.003999999976889157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999679896092</v>
+        <v>-0.0039999999755924165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999676227915</v>
+        <v>-0.0039999999754201099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999673483444</v>
+        <v>0.0001884016048290249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999560164099</v>
+        <v>-0.0049999999660261807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999842595706</v>
+        <v>-0.019999999878941743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999840456972</v>
+        <v>-0.019999999877229335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999725494604</v>
+        <v>-0.002499999979651335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999715067389</v>
+        <v>-0.0024999999795203287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999712201344</v>
+        <v>-0.0019999999821340708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999322005735</v>
+        <v>-0.0069999999541954239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0011661154686919417</v>
+        <v>-0.035914727056370666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.006999999928394729</v>
+        <v>-0.00287413808691106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999061086697</v>
+        <v>0.049594559904416968</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999949659383</v>
+        <v>-0.0039999999768625116</v>
       </c>
     </row>
   </sheetData>
